--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -46,31 +46,34 @@
     <t>illegal</t>
   </si>
   <si>
-    <t>insane</t>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>hate</t>
   </si>
   <si>
     <t>fucked</t>
@@ -79,34 +82,37 @@
     <t>disturbing</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>fake</t>
@@ -121,13 +127,16 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>brilliant</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>interesting</t>
@@ -148,9 +157,6 @@
     <t>important</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -160,43 +166,37 @@
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>please</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -565,7 +565,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>61</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.92</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.68</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,16 +947,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.6551724137931034</v>
+        <v>0.68</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.6111111111111112</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.4736842105263158</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.2916666666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.2439024390243902</v>
+        <v>0.2231329690346084</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,38 +1376,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L18">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>13</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>0.2276867030965392</v>
-      </c>
-      <c r="L18">
-        <v>250</v>
-      </c>
-      <c r="M18">
-        <v>250</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>848</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5531914893617021</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.2131147540983606</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5434782608695652</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.2033898305084746</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,10 +1547,10 @@
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.1666666666666667</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.1267605633802817</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>62</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,16 +1647,16 @@
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.1052631578947368</v>
+        <v>0.02639296187683285</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1676,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.03614457831325301</v>
+        <v>0.02435064935064935</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>640</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1726,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1744,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.03180212014134275</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>274</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1776,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1666666666666667</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.02407407407407407</v>
+        <v>0.01670506912442396</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>527</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1826,37 +1826,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04697986577181208</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.01792573623559539</v>
+        <v>0.01664532650448143</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1868,59 +1868,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28">
-        <v>0.01461038961038961</v>
-      </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>9</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>607</v>
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29">
-        <v>0.01152073732718894</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1716</v>
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.03691275167785235</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.08</v>
+      </c>
+      <c r="F29">
+        <v>0.92</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
